--- a/docs/public/spreadsheets/organization/OpenSociocracy-Organization-Workbook.xlsx
+++ b/docs/public/spreadsheets/organization/OpenSociocracy-Organization-Workbook.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>What are the top three drivers your organization responds to? Describe each driver in terms of actor, needs and context. Actors can be individuals or groups, inside or outside the organization, or the organization itself.</t>
   </si>
   <si>
     <t>What does your organization provide to meet the key drivers? Describe the top three deliverables (products, services, experiences or transformations).</t>
+  </si>
+  <si>
+    <t>Who will be your ideal customers? These should relate to the actors mentioned in your key drivers.</t>
   </si>
   <si>
     <t>What part of your customer segment can you use to find out fast whether or not your organization is able to deliver value?</t>
@@ -471,7 +474,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +500,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +526,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -574,7 +577,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -597,17 +600,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="97.88"/>
+    <col customWidth="1" min="1" max="1" width="79.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -713,7 +716,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -742,7 +745,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +771,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +797,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -845,7 +848,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +874,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
